--- a/BalanceSheet/ESS_bal.xlsx
+++ b/BalanceSheet/ESS_bal.xlsx
@@ -4092,7 +4092,7 @@
         <v>6290000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>5805000000.0</v>
+        <v>6022779000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>5956415000.0</v>
@@ -4219,7 +4219,7 @@
         <v>6572000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>5886000000.0</v>
+        <v>6103873000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>6048141000.0</v>
